--- a/StepsDataJuly2025.xlsx
+++ b/StepsDataJuly2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\green\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E640E2A-EE13-4AB3-8FB4-CAB250CDD678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885F912F-33F2-48A9-8387-D6A355DF85D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B463E587-E223-47CD-818C-3D1DB22C62AD}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,6 +2148,9 @@
       <c r="C121">
         <v>3</v>
       </c>
+      <c r="D121">
+        <v>12105</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -2159,6 +2162,9 @@
       <c r="C122">
         <v>4</v>
       </c>
+      <c r="D122">
+        <v>9263</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
@@ -2170,6 +2176,9 @@
       <c r="C123">
         <v>5</v>
       </c>
+      <c r="D123">
+        <v>11863</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
@@ -2181,6 +2190,9 @@
       <c r="C124">
         <v>6</v>
       </c>
+      <c r="D124">
+        <v>12042</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
@@ -2191,6 +2203,9 @@
       </c>
       <c r="C125">
         <v>7</v>
+      </c>
+      <c r="D125">
+        <v>3295</v>
       </c>
     </row>
   </sheetData>

--- a/StepsDataJuly2025.xlsx
+++ b/StepsDataJuly2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\green\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885F912F-33F2-48A9-8387-D6A355DF85D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE269D2-CBD4-45DE-AA9A-A213AF6ED854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B463E587-E223-47CD-818C-3D1DB22C62AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>DOTw</t>
+  </si>
+  <si>
+    <t>Distance</t>
   </si>
 </sst>
 </file>
@@ -447,18 +450,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB59E1F3-51BB-4CE9-9E92-7202A9DBEB23}">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +475,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45839</v>
       </c>
@@ -485,8 +492,11 @@
       <c r="D2">
         <v>6230</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45840</v>
       </c>
@@ -499,8 +509,11 @@
       <c r="D3">
         <v>9018</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45841</v>
       </c>
@@ -513,8 +526,11 @@
       <c r="D4">
         <v>15252</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45842</v>
       </c>
@@ -527,8 +543,11 @@
       <c r="D5">
         <v>13676</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45843</v>
       </c>
@@ -541,8 +560,11 @@
       <c r="D6">
         <v>1973</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45844</v>
       </c>
@@ -555,8 +577,11 @@
       <c r="D7">
         <v>2027</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45845</v>
       </c>
@@ -569,8 +594,11 @@
       <c r="D8">
         <v>8137</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45846</v>
       </c>
@@ -583,8 +611,11 @@
       <c r="D9">
         <v>8476</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45847</v>
       </c>
@@ -597,8 +628,11 @@
       <c r="D10">
         <v>9837</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45848</v>
       </c>
@@ -611,8 +645,11 @@
       <c r="D11">
         <v>9989</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45849</v>
       </c>
@@ -625,8 +662,11 @@
       <c r="D12">
         <v>9416</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45850</v>
       </c>
@@ -639,8 +679,11 @@
       <c r="D13">
         <v>2090</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45851</v>
       </c>
@@ -653,8 +696,11 @@
       <c r="D14">
         <v>4164</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45852</v>
       </c>
@@ -667,8 +713,11 @@
       <c r="D15">
         <v>10926</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45853</v>
       </c>
@@ -681,8 +730,11 @@
       <c r="D16">
         <v>9222</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45854</v>
       </c>
@@ -695,8 +747,11 @@
       <c r="D17">
         <v>13030</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45855</v>
       </c>
@@ -709,8 +764,11 @@
       <c r="D18">
         <v>10517</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45856</v>
       </c>
@@ -723,8 +781,11 @@
       <c r="D19">
         <v>8870</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45857</v>
       </c>
@@ -737,8 +798,11 @@
       <c r="D20">
         <v>5184</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45858</v>
       </c>
@@ -751,8 +815,11 @@
       <c r="D21">
         <v>3804</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45859</v>
       </c>
@@ -765,8 +832,11 @@
       <c r="D22">
         <v>8254</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45860</v>
       </c>
@@ -779,8 +849,11 @@
       <c r="D23">
         <v>10350</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45861</v>
       </c>
@@ -793,8 +866,11 @@
       <c r="D24">
         <v>8791</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45862</v>
       </c>
@@ -807,8 +883,11 @@
       <c r="D25">
         <v>9596</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45863</v>
       </c>
@@ -821,8 +900,11 @@
       <c r="D26">
         <v>10112</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45864</v>
       </c>
@@ -835,8 +917,11 @@
       <c r="D27">
         <v>3389</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45865</v>
       </c>
@@ -849,8 +934,11 @@
       <c r="D28">
         <v>3431</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45866</v>
       </c>
@@ -863,8 +951,11 @@
       <c r="D29">
         <v>11571</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45867</v>
       </c>
@@ -877,8 +968,11 @@
       <c r="D30">
         <v>8561</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45868</v>
       </c>
@@ -891,8 +985,11 @@
       <c r="D31">
         <v>8765</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45869</v>
       </c>
@@ -905,8 +1002,11 @@
       <c r="D32">
         <v>10023</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45870</v>
       </c>
@@ -919,8 +1019,11 @@
       <c r="D33">
         <v>10284</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45871</v>
       </c>
@@ -933,8 +1036,11 @@
       <c r="D34">
         <v>3424</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45872</v>
       </c>
@@ -947,8 +1053,11 @@
       <c r="D35">
         <v>2710</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45873</v>
       </c>
@@ -961,8 +1070,11 @@
       <c r="D36">
         <v>8894</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45874</v>
       </c>
@@ -975,8 +1087,11 @@
       <c r="D37">
         <v>9557</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45875</v>
       </c>
@@ -989,8 +1104,11 @@
       <c r="D38">
         <v>6782</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45876</v>
       </c>
@@ -1003,8 +1121,11 @@
       <c r="D39">
         <v>2547</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45877</v>
       </c>
@@ -1017,8 +1138,11 @@
       <c r="D40">
         <v>10045</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45878</v>
       </c>
@@ -1031,8 +1155,11 @@
       <c r="D41">
         <v>3041</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45879</v>
       </c>
@@ -1043,10 +1170,13 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>6513</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3885</v>
+      </c>
+      <c r="E42">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45880</v>
       </c>
@@ -1059,8 +1189,11 @@
       <c r="D43">
         <v>8472</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45881</v>
       </c>
@@ -1073,8 +1206,11 @@
       <c r="D44">
         <v>8470</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45882</v>
       </c>
@@ -1087,8 +1223,11 @@
       <c r="D45">
         <v>771</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45883</v>
       </c>
@@ -1101,8 +1240,11 @@
       <c r="D46">
         <v>10665</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45884</v>
       </c>
@@ -1115,8 +1257,11 @@
       <c r="D47">
         <v>10338</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45885</v>
       </c>
@@ -1129,8 +1274,11 @@
       <c r="D48">
         <v>2990</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45886</v>
       </c>
@@ -1143,8 +1291,11 @@
       <c r="D49">
         <v>3851</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45887</v>
       </c>
@@ -1157,8 +1308,11 @@
       <c r="D50">
         <v>8716</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45888</v>
       </c>
@@ -1171,8 +1325,11 @@
       <c r="D51">
         <v>7783</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45889</v>
       </c>
@@ -1185,8 +1342,11 @@
       <c r="D52">
         <v>11811</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45890</v>
       </c>
@@ -1199,8 +1359,11 @@
       <c r="D53">
         <v>9378</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45891</v>
       </c>
@@ -1213,8 +1376,11 @@
       <c r="D54">
         <v>10590</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45892</v>
       </c>
@@ -1227,8 +1393,11 @@
       <c r="D55">
         <v>3435</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45893</v>
       </c>
@@ -1241,8 +1410,11 @@
       <c r="D56">
         <v>3227</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45894</v>
       </c>
@@ -1255,8 +1427,11 @@
       <c r="D57">
         <v>15042</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45895</v>
       </c>
@@ -1269,8 +1444,11 @@
       <c r="D58">
         <v>8064</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45896</v>
       </c>
@@ -1283,8 +1461,11 @@
       <c r="D59">
         <v>7501</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45897</v>
       </c>
@@ -1297,8 +1478,11 @@
       <c r="D60">
         <v>10370</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45898</v>
       </c>
@@ -1311,8 +1495,11 @@
       <c r="D61">
         <v>9392</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45899</v>
       </c>
@@ -1325,8 +1512,11 @@
       <c r="D62">
         <v>3410</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45900</v>
       </c>
@@ -1339,8 +1529,11 @@
       <c r="D63">
         <v>4950</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45901</v>
       </c>
@@ -1353,8 +1546,11 @@
       <c r="D64">
         <v>8493</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45902</v>
       </c>
@@ -1367,8 +1563,11 @@
       <c r="D65">
         <v>9625</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45903</v>
       </c>
@@ -1381,8 +1580,11 @@
       <c r="D66">
         <v>12657</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45904</v>
       </c>
@@ -1395,8 +1597,11 @@
       <c r="D67">
         <v>12302</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45905</v>
       </c>
@@ -1409,8 +1614,11 @@
       <c r="D68">
         <v>14346</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45906</v>
       </c>
@@ -1423,8 +1631,11 @@
       <c r="D69">
         <v>4894</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45907</v>
       </c>
@@ -1437,8 +1648,11 @@
       <c r="D70">
         <v>2226</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45908</v>
       </c>
@@ -1451,8 +1665,11 @@
       <c r="D71">
         <v>13373</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45909</v>
       </c>
@@ -1465,8 +1682,11 @@
       <c r="D72">
         <v>13347</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45910</v>
       </c>
@@ -1479,8 +1699,11 @@
       <c r="D73">
         <v>13099</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45911</v>
       </c>
@@ -1493,8 +1716,11 @@
       <c r="D74">
         <v>8554</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45912</v>
       </c>
@@ -1507,8 +1733,11 @@
       <c r="D75">
         <v>13628</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45913</v>
       </c>
@@ -1521,8 +1750,11 @@
       <c r="D76">
         <v>3013</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45914</v>
       </c>
@@ -1535,8 +1767,11 @@
       <c r="D77">
         <v>2525</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45915</v>
       </c>
@@ -1549,8 +1784,11 @@
       <c r="D78">
         <v>13346</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45916</v>
       </c>
@@ -1563,8 +1801,11 @@
       <c r="D79">
         <v>12865</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45917</v>
       </c>
@@ -1577,8 +1818,11 @@
       <c r="D80">
         <v>13078</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45918</v>
       </c>
@@ -1591,8 +1835,11 @@
       <c r="D81">
         <v>8127</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45919</v>
       </c>
@@ -1605,8 +1852,11 @@
       <c r="D82">
         <v>8991</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45920</v>
       </c>
@@ -1619,8 +1869,11 @@
       <c r="D83">
         <v>2726</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45921</v>
       </c>
@@ -1633,8 +1886,11 @@
       <c r="D84">
         <v>3520</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45922</v>
       </c>
@@ -1647,8 +1903,11 @@
       <c r="D85">
         <v>8808</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45923</v>
       </c>
@@ -1661,8 +1920,11 @@
       <c r="D86">
         <v>13238</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45924</v>
       </c>
@@ -1675,8 +1937,11 @@
       <c r="D87">
         <v>13023</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45925</v>
       </c>
@@ -1689,8 +1954,11 @@
       <c r="D88">
         <v>14428</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45926</v>
       </c>
@@ -1703,8 +1971,11 @@
       <c r="D89">
         <v>8684</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45927</v>
       </c>
@@ -1717,8 +1988,11 @@
       <c r="D90">
         <v>3212</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45928</v>
       </c>
@@ -1731,8 +2005,11 @@
       <c r="D91">
         <v>1014</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45929</v>
       </c>
@@ -1745,8 +2022,11 @@
       <c r="D92">
         <v>14087</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45930</v>
       </c>
@@ -1759,8 +2039,11 @@
       <c r="D93">
         <v>12554</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45931</v>
       </c>
@@ -1773,8 +2056,11 @@
       <c r="D94">
         <v>11735</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45932</v>
       </c>
@@ -1787,8 +2073,11 @@
       <c r="D95">
         <v>15364</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45933</v>
       </c>
@@ -1801,8 +2090,11 @@
       <c r="D96">
         <v>7758</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45934</v>
       </c>
@@ -1815,8 +2107,11 @@
       <c r="D97">
         <v>2869</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45935</v>
       </c>
@@ -1829,8 +2124,11 @@
       <c r="D98">
         <v>3767</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45936</v>
       </c>
@@ -1843,8 +2141,11 @@
       <c r="D99">
         <v>14344</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45937</v>
       </c>
@@ -1857,8 +2158,11 @@
       <c r="D100">
         <v>7765</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45938</v>
       </c>
@@ -1871,8 +2175,11 @@
       <c r="D101">
         <v>13133</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45939</v>
       </c>
@@ -1885,8 +2192,11 @@
       <c r="D102">
         <v>12185</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45940</v>
       </c>
@@ -1899,8 +2209,11 @@
       <c r="D103">
         <v>9186</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45941</v>
       </c>
@@ -1913,8 +2226,11 @@
       <c r="D104">
         <v>4806</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45942</v>
       </c>
@@ -1927,8 +2243,11 @@
       <c r="D105">
         <v>2914</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45943</v>
       </c>
@@ -1941,8 +2260,11 @@
       <c r="D106">
         <v>14748</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45944</v>
       </c>
@@ -1955,8 +2277,11 @@
       <c r="D107">
         <v>15618</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45945</v>
       </c>
@@ -1969,8 +2294,11 @@
       <c r="D108">
         <v>14380</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45946</v>
       </c>
@@ -1983,8 +2311,11 @@
       <c r="D109">
         <v>14739</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45947</v>
       </c>
@@ -1997,8 +2328,11 @@
       <c r="D110">
         <v>9126</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45948</v>
       </c>
@@ -2011,8 +2345,11 @@
       <c r="D111">
         <v>3627</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45949</v>
       </c>
@@ -2025,8 +2362,11 @@
       <c r="D112">
         <v>3729</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45950</v>
       </c>
@@ -2039,8 +2379,11 @@
       <c r="D113">
         <v>12451</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45951</v>
       </c>
@@ -2053,8 +2396,11 @@
       <c r="D114">
         <v>13225</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45952</v>
       </c>
@@ -2067,8 +2413,11 @@
       <c r="D115">
         <v>11628</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45953</v>
       </c>
@@ -2081,8 +2430,11 @@
       <c r="D116">
         <v>13211</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45954</v>
       </c>
@@ -2095,8 +2447,11 @@
       <c r="D117">
         <v>16007</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45955</v>
       </c>
@@ -2109,8 +2464,11 @@
       <c r="D118">
         <v>3309</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45956</v>
       </c>
@@ -2123,8 +2481,11 @@
       <c r="D119">
         <v>3829</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45957</v>
       </c>
@@ -2137,8 +2498,11 @@
       <c r="D120">
         <v>13622</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45958</v>
       </c>
@@ -2151,8 +2515,11 @@
       <c r="D121">
         <v>12105</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45959</v>
       </c>
@@ -2165,8 +2532,11 @@
       <c r="D122">
         <v>9263</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45960</v>
       </c>
@@ -2179,8 +2549,11 @@
       <c r="D123">
         <v>11863</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45961</v>
       </c>
@@ -2193,8 +2566,11 @@
       <c r="D124">
         <v>12042</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45962</v>
       </c>
@@ -2206,6 +2582,9 @@
       </c>
       <c r="D125">
         <v>3295</v>
+      </c>
+      <c r="E125">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/StepsDataJuly2025.xlsx
+++ b/StepsDataJuly2025.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\green\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE269D2-CBD4-45DE-AA9A-A213AF6ED854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C71791-C425-4501-AF10-0A0FE9C93F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B463E587-E223-47CD-818C-3D1DB22C62AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -71,7 +74,34 @@
     <t>DOTw</t>
   </si>
   <si>
-    <t>Distance</t>
+    <t>Weather Conditions</t>
+  </si>
+  <si>
+    <t>Distance (mi)</t>
+  </si>
+  <si>
+    <t>High Temp (F)</t>
+  </si>
+  <si>
+    <t>Low Temp (F)</t>
+  </si>
+  <si>
+    <t>Light Rain</t>
+  </si>
+  <si>
+    <t>Precipitation (in)</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>Cloudy</t>
+  </si>
+  <si>
+    <t>T-Storm</t>
+  </si>
+  <si>
+    <t>Rain</t>
   </si>
 </sst>
 </file>
@@ -93,12 +123,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,9 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB59E1F3-51BB-4CE9-9E92-7202A9DBEB23}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +501,7 @@
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,10 +515,22 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45839</v>
       </c>
@@ -495,8 +546,20 @@
       <c r="E2">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>84</v>
+      </c>
+      <c r="G2">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45840</v>
       </c>
@@ -512,8 +575,20 @@
       <c r="E3">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>84</v>
+      </c>
+      <c r="G3">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45841</v>
       </c>
@@ -529,8 +604,20 @@
       <c r="E4">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>88</v>
+      </c>
+      <c r="G4">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45842</v>
       </c>
@@ -546,8 +633,20 @@
       <c r="E5">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>89</v>
+      </c>
+      <c r="G5">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45843</v>
       </c>
@@ -563,8 +662,20 @@
       <c r="E6">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>91</v>
+      </c>
+      <c r="G6">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45844</v>
       </c>
@@ -580,8 +691,20 @@
       <c r="E7">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>90</v>
+      </c>
+      <c r="G7">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45845</v>
       </c>
@@ -597,8 +720,20 @@
       <c r="E8">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>89</v>
+      </c>
+      <c r="G8">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45846</v>
       </c>
@@ -614,8 +749,20 @@
       <c r="E9">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>84</v>
+      </c>
+      <c r="G9">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45847</v>
       </c>
@@ -631,8 +778,20 @@
       <c r="E10">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>83</v>
+      </c>
+      <c r="G10">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45848</v>
       </c>
@@ -648,8 +807,20 @@
       <c r="E11">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>88</v>
+      </c>
+      <c r="G11">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45849</v>
       </c>
@@ -665,8 +836,20 @@
       <c r="E12">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>90</v>
+      </c>
+      <c r="G12">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45850</v>
       </c>
@@ -682,8 +865,20 @@
       <c r="E13">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>90</v>
+      </c>
+      <c r="G13">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45851</v>
       </c>
@@ -699,8 +894,20 @@
       <c r="E14">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>86</v>
+      </c>
+      <c r="G14">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45852</v>
       </c>
@@ -716,8 +923,20 @@
       <c r="E15">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>85</v>
+      </c>
+      <c r="G15">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45853</v>
       </c>
@@ -733,8 +952,20 @@
       <c r="E16">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>87</v>
+      </c>
+      <c r="G16">
+        <v>71</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45854</v>
       </c>
@@ -750,8 +981,20 @@
       <c r="E17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>87</v>
+      </c>
+      <c r="G17">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45855</v>
       </c>
@@ -767,8 +1010,20 @@
       <c r="E18">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>84</v>
+      </c>
+      <c r="G18">
+        <v>70</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45856</v>
       </c>
@@ -784,8 +1039,20 @@
       <c r="E19">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>86</v>
+      </c>
+      <c r="G19">
+        <v>71</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45857</v>
       </c>
@@ -801,8 +1068,20 @@
       <c r="E20">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>86</v>
+      </c>
+      <c r="G20">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45858</v>
       </c>
@@ -818,8 +1097,20 @@
       <c r="E21">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>86</v>
+      </c>
+      <c r="G21">
+        <v>71</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45859</v>
       </c>
@@ -835,8 +1126,20 @@
       <c r="E22">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>84</v>
+      </c>
+      <c r="G22">
+        <v>71</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45860</v>
       </c>
@@ -852,8 +1155,20 @@
       <c r="E23">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>84</v>
+      </c>
+      <c r="G23">
+        <v>67</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45861</v>
       </c>
@@ -869,8 +1184,20 @@
       <c r="E24">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>88</v>
+      </c>
+      <c r="G24">
+        <v>68</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45862</v>
       </c>
@@ -886,8 +1213,20 @@
       <c r="E25">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>91</v>
+      </c>
+      <c r="G25">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45863</v>
       </c>
@@ -903,8 +1242,20 @@
       <c r="E26">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>91</v>
+      </c>
+      <c r="G26">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45864</v>
       </c>
@@ -920,8 +1271,20 @@
       <c r="E27">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>91</v>
+      </c>
+      <c r="G27">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45865</v>
       </c>
@@ -937,8 +1300,20 @@
       <c r="E28">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>88</v>
+      </c>
+      <c r="G28">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45866</v>
       </c>
@@ -954,8 +1329,20 @@
       <c r="E29">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>88</v>
+      </c>
+      <c r="G29">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45867</v>
       </c>
@@ -971,8 +1358,20 @@
       <c r="E30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>91</v>
+      </c>
+      <c r="G30">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45868</v>
       </c>
@@ -988,8 +1387,20 @@
       <c r="E31">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>91</v>
+      </c>
+      <c r="G31">
+        <v>73</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45869</v>
       </c>
@@ -1005,8 +1416,20 @@
       <c r="E32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>81</v>
+      </c>
+      <c r="G32">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45870</v>
       </c>
@@ -1022,8 +1445,20 @@
       <c r="E33">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>71</v>
+      </c>
+      <c r="G33">
+        <v>62</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45871</v>
       </c>
@@ -1039,8 +1474,20 @@
       <c r="E34">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>79</v>
+      </c>
+      <c r="G34">
+        <v>62</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45872</v>
       </c>
@@ -1056,8 +1503,20 @@
       <c r="E35">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>83</v>
+      </c>
+      <c r="G35">
+        <v>63</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45873</v>
       </c>
@@ -1073,8 +1532,20 @@
       <c r="E36">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>83</v>
+      </c>
+      <c r="G36">
+        <v>67</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45874</v>
       </c>
@@ -1090,8 +1561,20 @@
       <c r="E37">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>85</v>
+      </c>
+      <c r="G37">
+        <v>69</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45875</v>
       </c>
@@ -1107,8 +1590,20 @@
       <c r="E38">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>86</v>
+      </c>
+      <c r="G38">
+        <v>66</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45876</v>
       </c>
@@ -1124,8 +1619,20 @@
       <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>87</v>
+      </c>
+      <c r="G39">
+        <v>67</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45877</v>
       </c>
@@ -1141,8 +1648,20 @@
       <c r="E40">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>88</v>
+      </c>
+      <c r="G40">
+        <v>69</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45878</v>
       </c>
@@ -1158,8 +1677,20 @@
       <c r="E41">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>90</v>
+      </c>
+      <c r="G41">
+        <v>70</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45879</v>
       </c>
@@ -1175,8 +1706,20 @@
       <c r="E42">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>89</v>
+      </c>
+      <c r="G42">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45880</v>
       </c>
@@ -1192,8 +1735,20 @@
       <c r="E43">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>90</v>
+      </c>
+      <c r="G43">
+        <v>70</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45881</v>
       </c>
@@ -1209,8 +1764,20 @@
       <c r="E44">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>89</v>
+      </c>
+      <c r="G44">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45882</v>
       </c>
@@ -1226,8 +1793,20 @@
       <c r="E45">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>86</v>
+      </c>
+      <c r="G45">
+        <v>70</v>
+      </c>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45883</v>
       </c>
@@ -1243,8 +1822,20 @@
       <c r="E46">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>89</v>
+      </c>
+      <c r="G46">
+        <v>68</v>
+      </c>
+      <c r="H46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45884</v>
       </c>
@@ -1260,8 +1851,20 @@
       <c r="E47">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>88</v>
+      </c>
+      <c r="G47">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45885</v>
       </c>
@@ -1277,8 +1880,20 @@
       <c r="E48">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>91</v>
+      </c>
+      <c r="G48">
+        <v>70</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45886</v>
       </c>
@@ -1294,8 +1909,20 @@
       <c r="E49">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>87</v>
+      </c>
+      <c r="G49">
+        <v>69</v>
+      </c>
+      <c r="H49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45887</v>
       </c>
@@ -1311,8 +1938,20 @@
       <c r="E50">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>88</v>
+      </c>
+      <c r="G50">
+        <v>71</v>
+      </c>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45888</v>
       </c>
@@ -1328,8 +1967,20 @@
       <c r="E51">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>91</v>
+      </c>
+      <c r="G51">
+        <v>69</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45889</v>
       </c>
@@ -1345,8 +1996,20 @@
       <c r="E52">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>78</v>
+      </c>
+      <c r="G52">
+        <v>70</v>
+      </c>
+      <c r="H52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45890</v>
       </c>
@@ -1362,8 +2025,20 @@
       <c r="E53">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>74</v>
+      </c>
+      <c r="G53">
+        <v>67</v>
+      </c>
+      <c r="H53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45891</v>
       </c>
@@ -1379,8 +2054,20 @@
       <c r="E54">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>79</v>
+      </c>
+      <c r="G54">
+        <v>66</v>
+      </c>
+      <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45892</v>
       </c>
@@ -1396,8 +2083,20 @@
       <c r="E55">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>82</v>
+      </c>
+      <c r="G55">
+        <v>64</v>
+      </c>
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45893</v>
       </c>
@@ -1413,8 +2112,20 @@
       <c r="E56">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>79</v>
+      </c>
+      <c r="G56">
+        <v>61</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45894</v>
       </c>
@@ -1430,8 +2141,20 @@
       <c r="E57">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>74</v>
+      </c>
+      <c r="G57">
+        <v>54</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45895</v>
       </c>
@@ -1447,8 +2170,20 @@
       <c r="E58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>74</v>
+      </c>
+      <c r="G58">
+        <v>50</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45896</v>
       </c>
@@ -1464,8 +2199,20 @@
       <c r="E59">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>75</v>
+      </c>
+      <c r="G59">
+        <v>49</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45897</v>
       </c>
@@ -1481,8 +2228,20 @@
       <c r="E60">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>74</v>
+      </c>
+      <c r="G60">
+        <v>52</v>
+      </c>
+      <c r="H60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45898</v>
       </c>
@@ -1498,8 +2257,20 @@
       <c r="E61">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>77</v>
+      </c>
+      <c r="G61">
+        <v>55</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45899</v>
       </c>
@@ -1515,8 +2286,20 @@
       <c r="E62">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>76</v>
+      </c>
+      <c r="G62">
+        <v>55</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45900</v>
       </c>
@@ -1532,8 +2315,20 @@
       <c r="E63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>78</v>
+      </c>
+      <c r="G63">
+        <v>54</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45901</v>
       </c>
@@ -1549,8 +2344,20 @@
       <c r="E64">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>83</v>
+      </c>
+      <c r="G64">
+        <v>56</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45902</v>
       </c>
@@ -1566,8 +2373,20 @@
       <c r="E65">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>84</v>
+      </c>
+      <c r="G65">
+        <v>61</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45903</v>
       </c>
@@ -1583,8 +2402,20 @@
       <c r="E66">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>83</v>
+      </c>
+      <c r="G66">
+        <v>58</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45904</v>
       </c>
@@ -1600,8 +2431,20 @@
       <c r="E67">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>72</v>
+      </c>
+      <c r="G67">
+        <v>53</v>
+      </c>
+      <c r="H67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45905</v>
       </c>
@@ -1617,8 +2460,20 @@
       <c r="E68">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>79</v>
+      </c>
+      <c r="G68">
+        <v>52</v>
+      </c>
+      <c r="H68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45906</v>
       </c>
@@ -1634,8 +2489,20 @@
       <c r="E69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>71</v>
+      </c>
+      <c r="G69">
+        <v>52</v>
+      </c>
+      <c r="H69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45907</v>
       </c>
@@ -1651,8 +2518,20 @@
       <c r="E70">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>71</v>
+      </c>
+      <c r="G70">
+        <v>49</v>
+      </c>
+      <c r="H70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45908</v>
       </c>
@@ -1668,8 +2547,20 @@
       <c r="E71">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>74</v>
+      </c>
+      <c r="G71">
+        <v>49</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45909</v>
       </c>
@@ -1685,8 +2576,20 @@
       <c r="E72">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>78</v>
+      </c>
+      <c r="G72">
+        <v>54</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45910</v>
       </c>
@@ -1702,8 +2605,20 @@
       <c r="E73">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>82</v>
+      </c>
+      <c r="G73">
+        <v>55</v>
+      </c>
+      <c r="H73" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45911</v>
       </c>
@@ -1719,8 +2634,20 @@
       <c r="E74">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>84</v>
+      </c>
+      <c r="G74">
+        <v>58</v>
+      </c>
+      <c r="H74" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45912</v>
       </c>
@@ -1736,8 +2663,20 @@
       <c r="E75">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>85</v>
+      </c>
+      <c r="G75">
+        <v>61</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45913</v>
       </c>
@@ -1753,8 +2692,20 @@
       <c r="E76">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>85</v>
+      </c>
+      <c r="G76">
+        <v>59</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45914</v>
       </c>
@@ -1770,8 +2721,20 @@
       <c r="E77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>87</v>
+      </c>
+      <c r="G77">
+        <v>63</v>
+      </c>
+      <c r="H77" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45915</v>
       </c>
@@ -1787,8 +2750,20 @@
       <c r="E78">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>89</v>
+      </c>
+      <c r="G78">
+        <v>65</v>
+      </c>
+      <c r="H78" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45916</v>
       </c>
@@ -1804,8 +2779,20 @@
       <c r="E79">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>87</v>
+      </c>
+      <c r="G79">
+        <v>63</v>
+      </c>
+      <c r="H79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45917</v>
       </c>
@@ -1821,8 +2808,20 @@
       <c r="E80">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>87</v>
+      </c>
+      <c r="G80">
+        <v>59</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45918</v>
       </c>
@@ -1838,8 +2837,20 @@
       <c r="E81">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>88</v>
+      </c>
+      <c r="G81">
+        <v>59</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45919</v>
       </c>
@@ -1855,8 +2866,20 @@
       <c r="E82">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>89</v>
+      </c>
+      <c r="G82">
+        <v>59</v>
+      </c>
+      <c r="H82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45920</v>
       </c>
@@ -1872,8 +2895,20 @@
       <c r="E83">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>91</v>
+      </c>
+      <c r="G83">
+        <v>65</v>
+      </c>
+      <c r="H83" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45921</v>
       </c>
@@ -1889,8 +2924,20 @@
       <c r="E84">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>82</v>
+      </c>
+      <c r="G84">
+        <v>65</v>
+      </c>
+      <c r="H84" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45922</v>
       </c>
@@ -1906,8 +2953,20 @@
       <c r="E85">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>72</v>
+      </c>
+      <c r="G85">
+        <v>66</v>
+      </c>
+      <c r="H85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45923</v>
       </c>
@@ -1923,8 +2982,20 @@
       <c r="E86">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>80</v>
+      </c>
+      <c r="G86">
+        <v>67</v>
+      </c>
+      <c r="H86" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45924</v>
       </c>
@@ -1940,8 +3011,20 @@
       <c r="E87">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>74</v>
+      </c>
+      <c r="G87">
+        <v>67</v>
+      </c>
+      <c r="H87" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45925</v>
       </c>
@@ -1957,8 +3040,20 @@
       <c r="E88">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>76</v>
+      </c>
+      <c r="G88">
+        <v>61</v>
+      </c>
+      <c r="H88" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45926</v>
       </c>
@@ -1974,76 +3069,136 @@
       <c r="E89">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="F89">
+        <v>79</v>
+      </c>
+      <c r="G89">
+        <v>58</v>
+      </c>
+      <c r="H89" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
         <v>45927</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="3">
         <v>7</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <v>3212</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+      <c r="F90" s="3">
+        <v>83</v>
+      </c>
+      <c r="G90" s="3">
+        <v>56</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
         <v>45928</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="3">
         <v>1</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>1014</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="F91" s="3">
+        <v>86</v>
+      </c>
+      <c r="G91" s="3">
+        <v>56</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
         <v>45929</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="3">
         <v>2</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>14087</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+      <c r="F92" s="3">
+        <v>85</v>
+      </c>
+      <c r="G92" s="3">
+        <v>55</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
         <v>45930</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="3">
         <v>3</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>12554</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="3">
+        <v>84</v>
+      </c>
+      <c r="G93" s="3">
+        <v>56</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45931</v>
       </c>
@@ -2059,8 +3214,20 @@
       <c r="E94">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>83</v>
+      </c>
+      <c r="G94">
+        <v>59</v>
+      </c>
+      <c r="H94" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45932</v>
       </c>
@@ -2076,8 +3243,20 @@
       <c r="E95">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>83</v>
+      </c>
+      <c r="G95">
+        <v>58</v>
+      </c>
+      <c r="H95" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45933</v>
       </c>
@@ -2093,8 +3272,20 @@
       <c r="E96">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>85</v>
+      </c>
+      <c r="G96">
+        <v>58</v>
+      </c>
+      <c r="H96" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45934</v>
       </c>
@@ -2110,8 +3301,20 @@
       <c r="E97">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>84</v>
+      </c>
+      <c r="G97">
+        <v>58</v>
+      </c>
+      <c r="H97" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45935</v>
       </c>
@@ -2127,8 +3330,20 @@
       <c r="E98">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>82</v>
+      </c>
+      <c r="G98">
+        <v>58</v>
+      </c>
+      <c r="H98" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45936</v>
       </c>
@@ -2144,8 +3359,20 @@
       <c r="E99">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>76</v>
+      </c>
+      <c r="G99">
+        <v>64</v>
+      </c>
+      <c r="H99" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45937</v>
       </c>
@@ -2161,8 +3388,20 @@
       <c r="E100">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>71</v>
+      </c>
+      <c r="G100">
+        <v>61</v>
+      </c>
+      <c r="H100" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45938</v>
       </c>
@@ -2178,8 +3417,20 @@
       <c r="E101">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>69</v>
+      </c>
+      <c r="G101">
+        <v>50</v>
+      </c>
+      <c r="H101" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45939</v>
       </c>
@@ -2195,8 +3446,20 @@
       <c r="E102">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>65</v>
+      </c>
+      <c r="G102">
+        <v>49</v>
+      </c>
+      <c r="H102" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45940</v>
       </c>
@@ -2212,8 +3475,20 @@
       <c r="E103">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>68</v>
+      </c>
+      <c r="G103">
+        <v>44</v>
+      </c>
+      <c r="H103" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45941</v>
       </c>
@@ -2229,8 +3504,20 @@
       <c r="E104">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>72</v>
+      </c>
+      <c r="G104">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45942</v>
       </c>
@@ -2246,8 +3533,20 @@
       <c r="E105">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>71</v>
+      </c>
+      <c r="G105">
+        <v>48</v>
+      </c>
+      <c r="H105" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45943</v>
       </c>
@@ -2263,8 +3562,20 @@
       <c r="E106">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>75</v>
+      </c>
+      <c r="G106">
+        <v>51</v>
+      </c>
+      <c r="H106" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45944</v>
       </c>
@@ -2280,8 +3591,20 @@
       <c r="E107">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>75</v>
+      </c>
+      <c r="G107">
+        <v>52</v>
+      </c>
+      <c r="H107" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45945</v>
       </c>
@@ -2297,8 +3620,20 @@
       <c r="E108">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>71</v>
+      </c>
+      <c r="G108">
+        <v>55</v>
+      </c>
+      <c r="H108" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45946</v>
       </c>
@@ -2314,8 +3649,20 @@
       <c r="E109">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>68</v>
+      </c>
+      <c r="G109">
+        <v>54</v>
+      </c>
+      <c r="H109" t="s">
+        <v>17</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45947</v>
       </c>
@@ -2331,8 +3678,20 @@
       <c r="E110">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>72</v>
+      </c>
+      <c r="G110">
+        <v>48</v>
+      </c>
+      <c r="H110" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45948</v>
       </c>
@@ -2348,8 +3707,20 @@
       <c r="E111">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>82</v>
+      </c>
+      <c r="G111">
+        <v>55</v>
+      </c>
+      <c r="H111" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45949</v>
       </c>
@@ -2365,8 +3736,20 @@
       <c r="E112">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>73</v>
+      </c>
+      <c r="G112">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>20</v>
+      </c>
+      <c r="I112" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45950</v>
       </c>
@@ -2382,8 +3765,20 @@
       <c r="E113">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>64</v>
+      </c>
+      <c r="G113">
+        <v>40</v>
+      </c>
+      <c r="H113" t="s">
+        <v>17</v>
+      </c>
+      <c r="I113" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45951</v>
       </c>
@@ -2399,8 +3794,20 @@
       <c r="E114">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>67</v>
+      </c>
+      <c r="G114">
+        <v>50</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45952</v>
       </c>
@@ -2416,8 +3823,20 @@
       <c r="E115">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>57</v>
+      </c>
+      <c r="G115">
+        <v>41</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45953</v>
       </c>
@@ -2433,8 +3852,20 @@
       <c r="E116">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>57</v>
+      </c>
+      <c r="G116">
+        <v>37</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45954</v>
       </c>
@@ -2450,8 +3881,20 @@
       <c r="E117">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>60</v>
+      </c>
+      <c r="G117">
+        <v>31</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45955</v>
       </c>
@@ -2467,8 +3910,20 @@
       <c r="E118">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>57</v>
+      </c>
+      <c r="G118">
+        <v>42</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45956</v>
       </c>
@@ -2484,8 +3939,20 @@
       <c r="E119">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>62</v>
+      </c>
+      <c r="G119">
+        <v>48</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45957</v>
       </c>
@@ -2501,8 +3968,20 @@
       <c r="E120">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>59</v>
+      </c>
+      <c r="G120">
+        <v>44</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45958</v>
       </c>
@@ -2518,8 +3997,20 @@
       <c r="E121">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>61</v>
+      </c>
+      <c r="G121">
+        <v>49</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45959</v>
       </c>
@@ -2535,8 +4026,20 @@
       <c r="E122">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>54</v>
+      </c>
+      <c r="G122">
+        <v>44</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I122" s="4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45960</v>
       </c>
@@ -2552,8 +4055,20 @@
       <c r="E123">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>48</v>
+      </c>
+      <c r="G123">
+        <v>39</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" s="4">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45961</v>
       </c>
@@ -2569,8 +4084,20 @@
       <c r="E124">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>55</v>
+      </c>
+      <c r="G124">
+        <v>38</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="4">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45962</v>
       </c>
@@ -2586,8 +4113,21 @@
       <c r="E125">
         <v>1.4</v>
       </c>
+      <c r="F125">
+        <v>59</v>
+      </c>
+      <c r="G125">
+        <v>37</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1" xr:uid="{FB59E1F3-51BB-4CE9-9E92-7202A9DBEB23}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
